--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Azgp1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Azgp1-Itgav.xlsx
@@ -534,7 +534,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.6008599999999999</v>
+        <v>0.6008600000000001</v>
       </c>
       <c r="H2">
         <v>1.80258</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N2">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q2">
-        <v>9.935583019439999</v>
+        <v>1.636743641433333</v>
       </c>
       <c r="R2">
-        <v>89.42024717495998</v>
+        <v>14.7306927729</v>
       </c>
       <c r="S2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="T2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.6008599999999999</v>
+        <v>0.6008600000000001</v>
       </c>
       <c r="H3">
         <v>1.80258</v>
@@ -620,22 +620,22 @@
         <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q3">
-        <v>24.40731214237333</v>
+        <v>24.40731214237334</v>
       </c>
       <c r="R3">
         <v>219.66580928136</v>
       </c>
       <c r="S3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="T3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.6008599999999999</v>
+        <v>0.6008600000000001</v>
       </c>
       <c r="H4">
         <v>1.80258</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N4">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q4">
-        <v>12.51304709694</v>
+        <v>9.264831585100001</v>
       </c>
       <c r="R4">
-        <v>112.61742387246</v>
+        <v>83.38348426590001</v>
       </c>
       <c r="S4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="T4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
     </row>
   </sheetData>
